--- a/2000_Furusawa/data/raw/HeV79.xlsx
+++ b/2000_Furusawa/data/raw/HeV79.xlsx
@@ -46,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +68,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,10 +220,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -259,267 +261,211 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>18.6</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>9.89</v>
+        <v>12.3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>10.1</v>
+        <v>7.73</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>196</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>7.73</v>
+        <v>7.39</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>7.39</v>
+        <v>7.3</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>24</v>
+        <v>29.9</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>12.8</v>
+        <v>16.1</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>29.9</v>
+        <v>38.1</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>16.1</v>
+        <v>20.6</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>5.5</v>
+        <v>4.07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>354</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>29.9</v>
+        <v>39.2</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>16.1</v>
+        <v>21.2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>5.5</v>
+        <v>3.92</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>354</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>38.1</v>
+        <v>39.4</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>20.6</v>
+        <v>21.3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>4.07</v>
+        <v>3.9</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>482</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>39.2</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>21.2</v>
+        <v>27.4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3.92</v>
+        <v>2.83</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>500</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>39.4</v>
+        <v>51.9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>21.3</v>
+        <v>28.5</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>3.9</v>
+        <v>2.72</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>504</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>50</v>
+        <v>52.3</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>27.4</v>
+        <v>28.7</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>2.83</v>
+        <v>2.7</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>692</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>51.9</v>
+        <v>58.9</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>28.5</v>
+        <v>32.5</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>2.72</v>
+        <v>2.33</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>729</v>
+        <v>864</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>52.3</v>
+        <v>61.9</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>28.7</v>
+        <v>34.3</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>736</v>
+        <v>922</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>58.9</v>
+        <v>73.9</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>32.5</v>
+        <v>41.4</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>2.33</v>
+        <v>1.65</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>864</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>61.9</v>
+        <v>74.6</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>34.3</v>
+        <v>41.8</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>2.16</v>
+        <v>1.62</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>922</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>73.9</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>74.6</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>74.6</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>90.8</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>51.2</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>1.27</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="D21" s="3" t="n">
+      <c r="D17" s="3" t="n">
         <v>1578</v>
       </c>
     </row>
